--- a/Project Documents/Risk Management.xlsx
+++ b/Project Documents/Risk Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B2D685-0345-4055-B853-A299794EBB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DAF8B4-770E-4EE7-9E30-587C2AF2EABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Risk Category</t>
   </si>
@@ -114,6 +114,39 @@
 6. Insert the answer to question 5 into this spreadsheet in cell A16 with red font color.
 7. Submit this "Risk Managment In-Class Exercise" Spreadsheet with a file name that begins with your last name and the Edited "Risk Analysis" Spreadsheet with a file name that begins with your last name on LMS.
 </t>
+  </si>
+  <si>
+    <t>Technical Challenges</t>
+  </si>
+  <si>
+    <t>Cybersecurity threats</t>
+  </si>
+  <si>
+    <t>Lack of User Adoption</t>
+  </si>
+  <si>
+    <t>Data Security</t>
+  </si>
+  <si>
+    <t>Change in Requirements</t>
+  </si>
+  <si>
+    <t>Integration faults</t>
+  </si>
+  <si>
+    <t>Data Integrity</t>
+  </si>
+  <si>
+    <t>Scope Creep</t>
+  </si>
+  <si>
+    <t>Regulatory compliance</t>
+  </si>
+  <si>
+    <t>Client/Organization Approval</t>
+  </si>
+  <si>
+    <t>Third Party Approval</t>
   </si>
 </sst>
 </file>
@@ -448,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -821,18 +854,65 @@
         <v>-18205</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Project Documents/Risk Management.xlsx
+++ b/Project Documents/Risk Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DAF8B4-770E-4EE7-9E30-587C2AF2EABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FC7CF0-B353-4039-A26C-BFADE5F2EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Risk Category</t>
   </si>
@@ -71,34 +71,10 @@
     <t>Configuration Detail</t>
   </si>
   <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Availability of Resource</t>
-  </si>
-  <si>
-    <t>Skill Level of Available Resources</t>
-  </si>
-  <si>
-    <t>Cost of Training Personnel</t>
-  </si>
-  <si>
-    <t>Organizational Risk</t>
-  </si>
-  <si>
-    <t>Percentage of Business Units affected</t>
-  </si>
-  <si>
-    <t>Process Change Required</t>
-  </si>
-  <si>
     <t>Implementation</t>
   </si>
   <si>
     <t>Timeline</t>
-  </si>
-  <si>
-    <t>Impact on Existing Systems</t>
   </si>
   <si>
     <t>Sum</t>
@@ -148,6 +124,21 @@
   <si>
     <t>Third Party Approval</t>
   </si>
+  <si>
+    <t>Lack of User Acceptance</t>
+  </si>
+  <si>
+    <t>Integration Faults</t>
+  </si>
+  <si>
+    <t>Data Specificity</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Organizational Complexity</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +200,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -264,6 +261,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,13 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.4140625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
@@ -502,7 +501,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -547,25 +546,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="7">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9">
         <f>D3/$D$14</f>
-        <v>0.1</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="F3" s="10">
         <f>C3*D3</f>
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="12">
         <f>F3/$F$14</f>
-        <v>0.11467889908256881</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -579,22 +578,22 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="7">
-        <v>100000</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E12" si="0">D4/$D$14</f>
-        <v>0.1</v>
+        <v>2.0408163265306121E-2</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" ref="F4:F12" si="1">C4*D4</f>
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4:H12" si="2">F4/$F$14</f>
-        <v>4.5871559633027525E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -605,228 +604,228 @@
         <v>10</v>
       </c>
       <c r="C5" s="6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="7">
-        <v>60000</v>
+        <v>200</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>80</v>
       </c>
       <c r="G5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="2"/>
-        <v>4.1284403669724773E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
+      <c r="A6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="7">
-        <v>190000</v>
+        <v>400</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>0.16326530612244897</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>19000</v>
+        <v>80</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="2"/>
-        <v>4.3577981651376149E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="6">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="7">
-        <v>130000</v>
+        <v>500</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>104000</v>
+        <v>100</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="2"/>
-        <v>0.23853211009174313</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
+      <c r="A8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="6">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="7">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>27000</v>
+        <v>60</v>
       </c>
       <c r="G8" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="2"/>
-        <v>6.1926605504587159E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
+      <c r="A9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="7">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>40</v>
       </c>
       <c r="G9" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="2"/>
-        <v>2.8669724770642203E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="6">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D10" s="7">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>30</v>
       </c>
       <c r="G10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="2"/>
-        <v>0.10321100917431193</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D11" s="7">
-        <v>140000</v>
+        <v>100</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>28000</v>
+        <v>10</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="2"/>
-        <v>6.4220183486238536E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="6">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="7">
-        <v>150000</v>
+        <v>300</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>112500</v>
+        <v>60</v>
       </c>
       <c r="G12" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="2"/>
-        <v>0.2580275229357798</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -835,18 +834,21 @@
     </row>
     <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
         <f>SUM(D3:D12)</f>
-        <v>1000000</v>
+        <v>2450</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f>SUM(F3:F12)</f>
-        <v>436000</v>
-      </c>
-      <c r="G14" s="11"/>
+        <v>500</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(G3:G12)</f>
+        <v>19</v>
+      </c>
       <c r="H14" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.3">
@@ -856,57 +858,57 @@
     </row>
     <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Project Documents/Risk Management.xlsx
+++ b/Project Documents/Risk Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FC7CF0-B353-4039-A26C-BFADE5F2EF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B432A8-4E5C-4D02-B86A-2D25BDDEA029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,12 +257,12 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
@@ -500,15 +500,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -552,8 +552,8 @@
         <v>100</v>
       </c>
       <c r="E3" s="9">
-        <f>D3/$D$14</f>
-        <v>4.0816326530612242E-2</v>
+        <f>ROUNDUP(D3/$D$14,2)</f>
+        <v>0.05</v>
       </c>
       <c r="F3" s="10">
         <f>C3*D3</f>
@@ -581,18 +581,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" ref="E4:E12" si="0">D4/$D$14</f>
-        <v>2.0408163265306121E-2</v>
+        <f>ROUND(D4/$D$14,4)</f>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F12" si="1">C4*D4</f>
+        <f t="shared" ref="F4:F12" si="0">C4*D4</f>
         <v>10</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" ref="H4:H12" si="2">F4/$F$14</f>
+        <f t="shared" ref="H4:H12" si="1">F4/$F$14</f>
         <v>0.02</v>
       </c>
     </row>
@@ -610,52 +610,52 @@
         <v>200</v>
       </c>
       <c r="E5" s="9">
+        <f t="shared" ref="E4:E12" si="2">ROUND(D5/$D$14,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>8.1632653061224483E-2</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G5" s="11">
         <v>3</v>
       </c>
       <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>400</v>
+      </c>
+      <c r="E6" s="9">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>400</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>0.16326530612244897</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G6" s="11">
         <v>3</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
@@ -668,23 +668,23 @@
         <v>500</v>
       </c>
       <c r="E7" s="9">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>0.20408163265306123</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G7" s="11">
         <v>3</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
@@ -697,76 +697,76 @@
         <v>300</v>
       </c>
       <c r="E8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>0.12244897959183673</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G8" s="11">
         <v>2</v>
       </c>
       <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>200</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>300</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>200</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>8.1632653061224483E-2</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G9" s="11">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>300</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.12244897959183673</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
     </row>
@@ -784,18 +784,18 @@
         <v>100</v>
       </c>
       <c r="E11" s="9">
+        <f>ROUNDUP(D11/$D$14,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>4.0816326530612242E-2</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="6">
@@ -813,18 +813,18 @@
         <v>300</v>
       </c>
       <c r="E12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>0.12244897959183673</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G12" s="11">
         <v>2</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
@@ -840,7 +840,10 @@
         <f>SUM(D3:D12)</f>
         <v>2450</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <f>SUM(E3:E12)</f>
+        <v>1.0004</v>
+      </c>
       <c r="F14" s="7">
         <f>SUM(F3:F12)</f>
         <v>500</v>

--- a/Project Documents/Risk Management.xlsx
+++ b/Project Documents/Risk Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B432A8-4E5C-4D02-B86A-2D25BDDEA029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7832B562-323B-4245-8C3D-4ED22A25E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
         <v>200</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" ref="E4:E12" si="2">ROUND(D5/$D$14,2)</f>
+        <f t="shared" ref="E5:E12" si="2">ROUND(D5/$D$14,2)</f>
         <v>0.08</v>
       </c>
       <c r="F5" s="10">
@@ -771,8 +771,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
+      <c r="A11" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
